--- a/modeling headway FA22/manuscript figs/sensitivity analysis runs.xlsx
+++ b/modeling headway FA22/manuscript figs/sensitivity analysis runs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanessa/High-Plains/modeling headway FA22/manuscript figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D03CD-DDEA-7F4C-8561-A453A4065600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD665F2-4C72-E44B-A99F-3EB90FE8FFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="940" windowWidth="36900" windowHeight="20500" xr2:uid="{A1E789AD-8EFF-F041-AF6E-58597918FEEE}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="36900" windowHeight="19560" xr2:uid="{A1E789AD-8EFF-F041-AF6E-58597918FEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,7 +141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,13 +158,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +486,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,275 +499,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="9">
+        <v>1E-8</v>
+      </c>
+      <c r="E2" s="8">
         <v>50000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <f xml:space="preserve"> (1/3) * (E2^(2))</f>
         <v>833333333.33333325</v>
       </c>
-      <c r="G2" s="1">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="H2" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>0.5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="8">
         <v>0.01</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <f>K2*F2</f>
         <v>4166666666.666666</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <f>M2/31500000</f>
         <v>132.27513227513225</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <f xml:space="preserve"> N2/(SQRT(2.65 * 9.81 * (L2^5)))</f>
         <v>2594303.3941206196</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="6">
+        <v>5.3359185165754704E-4</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>(2.61* N2 * P2^(7/6))/(L2 ^ (3/2))</f>
+        <v>52.464165053111792</v>
+      </c>
+      <c r="R2" s="4">
+        <f>0.09801 * (L2/P2)</f>
+        <v>1.8367971642659504</v>
+      </c>
+      <c r="S2" s="4">
+        <f>Q2/L2</f>
+        <v>5246.4165053111792</v>
+      </c>
+      <c r="T2" s="4">
+        <f>R2/L2</f>
+        <v>183.67971642659504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>50000</v>
+      </c>
+      <c r="F3" s="4">
+        <f xml:space="preserve"> (1/3) * (E3^(2))</f>
+        <v>833333333.33333325</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="M3" s="4">
+        <f>K3*F3</f>
+        <v>4166666666.666666</v>
+      </c>
+      <c r="N3" s="4">
+        <f>M3/31500000</f>
+        <v>132.27513227513225</v>
+      </c>
+      <c r="O3" s="4">
+        <f xml:space="preserve"> N3/(SQRT(2.65 * 9.81 * (L3^5)))</f>
+        <v>2594303.3941206196</v>
+      </c>
+      <c r="P3" s="4">
         <v>5.2876502583239899E-4</v>
       </c>
-      <c r="Q2">
-        <f>(2.61* N2 * P2^(7/6))/(L2 ^ (3/2))</f>
+      <c r="Q3" s="4">
+        <f>(2.61* N3 * P3^(7/6))/(L3 ^ (3/2))</f>
         <v>51.910899461934264</v>
       </c>
-      <c r="R2">
-        <f>0.09801 * (L2/P2)</f>
+      <c r="R3" s="4">
+        <f>0.09801 * (L3/P3)</f>
         <v>1.8535643473338559</v>
       </c>
-      <c r="S2">
-        <f>Q2/L2</f>
+      <c r="S3" s="4">
+        <f>Q3/L3</f>
         <v>5191.0899461934259</v>
       </c>
-      <c r="T2">
-        <f>R2/L2</f>
+      <c r="T3" s="4">
+        <f>R3/L3</f>
         <v>185.35643473338558</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>7.4999999999999997E-8</v>
-      </c>
-      <c r="E3">
+      <c r="D4" s="5">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="E4" s="4">
         <v>50000</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F18" si="0" xml:space="preserve"> (1/3) * (E3^(2))</f>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F5" si="0" xml:space="preserve"> (1/3) * (E4^(2))</f>
         <v>833333333.33333325</v>
       </c>
-      <c r="G3" s="1">
-        <v>7.4999999999999997E-8</v>
-      </c>
-      <c r="H3">
+      <c r="G4" s="5">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="H4" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="4">
         <v>0.5</v>
       </c>
-      <c r="K3">
+      <c r="K4" s="4">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="L4" s="4">
         <v>0.01</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M18" si="1">K3*F3</f>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M5" si="1">K4*F4</f>
         <v>4166666666.666666</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N18" si="2">M3/31500000</f>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N5" si="2">M4/31500000</f>
         <v>132.27513227513225</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O18" si="3" xml:space="preserve"> N3/(SQRT(2.65 * 9.81 * (L3^5)))</f>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O5" si="3" xml:space="preserve"> N4/(SQRT(2.65 * 9.81 * (L4^5)))</f>
         <v>2594303.3941206196</v>
       </c>
-      <c r="P3">
-        <v>5.2664711802753999E-4</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q18" si="4">(2.61* N3 * P3^(7/6))/(L3 ^ (3/2))</f>
-        <v>51.668403491107028</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R18" si="5">0.09801 * (L3/P3)</f>
-        <v>1.8610184437556299</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S18" si="6">Q3/L3</f>
-        <v>5166.8403491107028</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T18" si="7">R3/L3</f>
-        <v>186.10184437556299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.4999999999999999E-7</v>
-      </c>
-      <c r="E4">
-        <v>50000</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>833333333.33333325</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.4999999999999999E-7</v>
-      </c>
-      <c r="H4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J4">
-        <v>0.5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>0.01</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>4166666666.666666</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
-        <v>132.27513227513225</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="3"/>
-        <v>2594303.3941206196</v>
-      </c>
-      <c r="P4">
-        <v>5.1944480172278395E-4</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="4"/>
-        <v>50.844972533541586</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="5"/>
-        <v>1.8868222316392673</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="6"/>
-        <v>5084.4972533541586</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="7"/>
-        <v>188.68222316392672</v>
+      <c r="P4" s="4">
+        <v>5.1618845250231903E-4</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" ref="Q4" si="4">(2.61* N4 * P4^(7/6))/(L4 ^ (3/2))</f>
+        <v>50.473301221253891</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" ref="R4" si="5">0.09801 * (L4/P4)</f>
+        <v>1.8987251559944511</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" ref="S4" si="6">Q4/L4</f>
+        <v>5047.3301221253887</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4" si="7">R4/L4</f>
+        <v>189.87251559944511</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -777,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>4.9999999999999998E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E5" s="4">
         <v>50000</v>
@@ -787,7 +791,7 @@
         <v>833333333.33333325</v>
       </c>
       <c r="G5" s="5">
-        <v>4.9999999999999998E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="H5" s="4">
         <v>5.0000000000000001E-4</v>
@@ -816,933 +820,914 @@
         <f t="shared" si="3"/>
         <v>2594303.3941206196</v>
       </c>
-      <c r="P5" s="4">
-        <v>4.38635780821641E-4</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="4"/>
-        <v>41.742018212154903</v>
-      </c>
-      <c r="R5" s="4">
-        <f t="shared" si="5"/>
-        <v>2.2344278393433901</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="6"/>
-        <v>4174.2018212154899</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="7"/>
-        <v>223.44278393433899</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F18" si="8" xml:space="preserve"> (1/3) * (E6^(2))</f>
         <v>833333333.33333325</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0.5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>0.01</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:M18" si="9">K6*F6</f>
         <v>833333333.33333325</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N18" si="10">M6/31500000</f>
         <v>26.455026455026452</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O18" si="11" xml:space="preserve"> N6/(SQRT(2.65 * 9.81 * (L6^5)))</f>
         <v>518860.67882412398</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>2.0856849613774099E-3</v>
       </c>
-      <c r="Q6">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="1">
+        <f t="shared" ref="Q6:Q18" si="12">(2.61* N6 * P6^(7/6))/(L6 ^ (3/2))</f>
         <v>51.476088101270967</v>
       </c>
-      <c r="R6">
-        <f t="shared" si="5"/>
+      <c r="R6" s="1">
+        <f t="shared" ref="R6:R18" si="13">0.09801 * (L6/P6)</f>
         <v>0.46991756576349425</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="6"/>
+      <c r="S6" s="1">
+        <f t="shared" ref="S6:S18" si="14">Q6/L6</f>
         <v>5147.6088101270971</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="7"/>
+      <c r="T6" s="1">
+        <f t="shared" ref="T6:T18" si="15">R6/L6</f>
         <v>46.991756576349424</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>2.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>50000</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
+      <c r="F7" s="1">
+        <f t="shared" si="8"/>
         <v>833333333.33333325</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>0.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>2.5</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>0.01</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="9"/>
         <v>2083333333.333333</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
+      <c r="N7" s="1">
+        <f t="shared" si="10"/>
         <v>66.137566137566125</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
+      <c r="O7" s="1">
+        <f t="shared" si="11"/>
         <v>1297151.6970603098</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>9.5094910426996601E-4</v>
       </c>
-      <c r="Q7">
-        <f t="shared" si="4"/>
+      <c r="Q7" s="1">
+        <f t="shared" si="12"/>
         <v>51.476088098800545</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="5"/>
+      <c r="R7" s="1">
+        <f t="shared" si="13"/>
         <v>1.030654527775609</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="6"/>
+      <c r="S7" s="1">
+        <f t="shared" si="14"/>
         <v>5147.6088098800547</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="7"/>
+      <c r="T7" s="1">
+        <f t="shared" si="15"/>
         <v>103.06545277756089</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>7.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>50000</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
+      <c r="F8" s="1">
+        <f t="shared" si="8"/>
         <v>833333333.33333325</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>0.5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>7.5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>0.01</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
+      <c r="M8" s="1">
+        <f t="shared" si="9"/>
         <v>6249999999.999999</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
+      <c r="N8" s="1">
+        <f t="shared" si="10"/>
         <v>198.41269841269838</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
+      <c r="O8" s="1">
+        <f t="shared" si="11"/>
         <v>3891455.0911809294</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>3.7084821949338198E-4</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="4"/>
+      <c r="Q8" s="1">
+        <f t="shared" si="12"/>
         <v>51.476088100389703</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="5"/>
+      <c r="R8" s="1">
+        <f t="shared" si="13"/>
         <v>2.6428602012406062</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="6"/>
+      <c r="S8" s="1">
+        <f t="shared" si="14"/>
         <v>5147.6088100389698</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="7"/>
+      <c r="T8" s="1">
+        <f t="shared" si="15"/>
         <v>264.2860201240606</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>50000</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
+      <c r="F9" s="1">
+        <f t="shared" si="8"/>
         <v>833333333.33333325</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>0.5</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>10</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>0.01</v>
       </c>
-      <c r="M9" s="4">
-        <f t="shared" si="1"/>
+      <c r="M9" s="1">
+        <f t="shared" si="9"/>
         <v>8333333333.3333321</v>
       </c>
-      <c r="N9" s="4">
-        <f t="shared" si="2"/>
+      <c r="N9" s="1">
+        <f t="shared" si="10"/>
         <v>264.5502645502645</v>
       </c>
-      <c r="O9" s="4">
-        <f t="shared" si="3"/>
+      <c r="O9" s="1">
+        <f t="shared" si="11"/>
         <v>5188606.7882412393</v>
       </c>
-      <c r="P9" s="4">
-        <v>2.5489660030143498E-4</v>
-      </c>
-      <c r="Q9" s="4">
-        <f t="shared" si="4"/>
-        <v>44.31731336610784</v>
-      </c>
-      <c r="R9" s="4">
-        <f t="shared" si="5"/>
-        <v>3.8450885529307013</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="6"/>
-        <v>4431.7313366107837</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="7"/>
-        <v>384.5088552930701</v>
+      <c r="P9" s="1">
+        <v>2.8980498565397202E-4</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="12"/>
+        <v>51.476088101768305</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="13"/>
+        <v>3.3819293956876302</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="14"/>
+        <v>5147.60881017683</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="15"/>
+        <v>338.19293956876299</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>50000</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
+      <c r="F10" s="1">
+        <f t="shared" si="8"/>
         <v>833333333.33333325</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>0.5</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>0.01</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
+      <c r="M10" s="1">
+        <f t="shared" si="9"/>
         <v>4166666666.666666</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
+      <c r="N10" s="1">
+        <f t="shared" si="10"/>
         <v>132.27513227513225</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
+      <c r="O10" s="1">
+        <f t="shared" si="11"/>
         <v>2594303.3941206196</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>9.2424321352882499E-4</v>
       </c>
-      <c r="Q10">
-        <f t="shared" si="4"/>
+      <c r="Q10" s="1">
+        <f t="shared" si="12"/>
         <v>99.587010137436678</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="5"/>
+      <c r="R10" s="1">
+        <f t="shared" si="13"/>
         <v>1.0604351599812238</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="6"/>
+      <c r="S10" s="1">
+        <f t="shared" si="14"/>
         <v>9958.7010137436682</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="7"/>
+      <c r="T10" s="1">
+        <f t="shared" si="15"/>
         <v>106.04351599812239</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>50000</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="F11" s="1">
+        <f t="shared" si="8"/>
         <v>833333333.33333325</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>0.5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>5</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>0.01</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
+      <c r="M11" s="1">
+        <f t="shared" si="9"/>
         <v>4166666666.666666</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
+      <c r="N11" s="1">
+        <f t="shared" si="10"/>
         <v>132.27513227513225</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
+      <c r="O11" s="1">
+        <f t="shared" si="11"/>
         <v>2594303.3941206196</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>6.6494927003077397E-4</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="4"/>
+      <c r="Q11" s="1">
+        <f t="shared" si="12"/>
         <v>67.822216317576149</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="5"/>
+      <c r="R11" s="1">
+        <f t="shared" si="13"/>
         <v>1.4739470274997684</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="6"/>
+      <c r="S11" s="1">
+        <f t="shared" si="14"/>
         <v>6782.2216317576149</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="7"/>
+      <c r="T11" s="1">
+        <f t="shared" si="15"/>
         <v>147.39470274997683</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>50000</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="F12" s="1">
+        <f t="shared" si="8"/>
         <v>833333333.33333325</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>0.5</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>5</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>0.01</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
+      <c r="M12" s="1">
+        <f t="shared" si="9"/>
         <v>4166666666.666666</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
+      <c r="N12" s="1">
+        <f t="shared" si="10"/>
         <v>132.27513227513225</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
+      <c r="O12" s="1">
+        <f t="shared" si="11"/>
         <v>2594303.3941206196</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>4.3646440462089198E-4</v>
       </c>
-      <c r="Q12">
-        <f t="shared" si="4"/>
+      <c r="Q12" s="1">
+        <f t="shared" si="12"/>
         <v>41.501043311593577</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="5"/>
+      <c r="R12" s="1">
+        <f t="shared" si="13"/>
         <v>2.2455439426986117</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="6"/>
+      <c r="S12" s="1">
+        <f t="shared" si="14"/>
         <v>4150.1043311593576</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="7"/>
+      <c r="T12" s="1">
+        <f t="shared" si="15"/>
         <v>224.55439426986118</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>50000</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
+      <c r="F13" s="1">
+        <f t="shared" si="8"/>
         <v>833333333.33333325</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <v>0.5</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>0.01</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" si="1"/>
+      <c r="M13" s="1">
+        <f t="shared" si="9"/>
         <v>4166666666.666666</v>
       </c>
-      <c r="N13" s="4">
-        <f t="shared" si="2"/>
+      <c r="N13" s="1">
+        <f t="shared" si="10"/>
         <v>132.27513227513225</v>
       </c>
-      <c r="O13" s="4">
-        <f t="shared" si="3"/>
+      <c r="O13" s="1">
+        <f t="shared" si="11"/>
         <v>2594303.3941206196</v>
       </c>
-      <c r="P13" s="4">
-        <v>4.5289086820230297E-4</v>
-      </c>
-      <c r="Q13" s="4">
-        <f t="shared" si="4"/>
-        <v>43.328920564082225</v>
-      </c>
-      <c r="R13" s="4">
-        <f t="shared" si="5"/>
-        <v>2.1640975096062141</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="6"/>
-        <v>4332.8920564082227</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="7"/>
-        <v>216.40975096062141</v>
+      <c r="P13" s="1">
+        <v>3.7507858488424899E-4</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="12"/>
+        <v>34.774537194126104</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="13"/>
+        <v>2.6130524095436254</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="14"/>
+        <v>3477.4537194126106</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="15"/>
+        <v>261.30524095436255</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.25</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>50000</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="F14" s="1">
+        <f t="shared" si="8"/>
         <v>833333333.33333325</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="9"/>
+        <v>4166666666.666666</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="10"/>
+        <v>132.27513227513225</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="11"/>
+        <v>2594303.3941206196</v>
+      </c>
+      <c r="P14" s="1">
+        <v>3.6312424347306602E-4</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="12"/>
+        <v>33.484963581169559</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="13"/>
+        <v>2.699076191184401</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="14"/>
+        <v>3348.4963581169559</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="15"/>
+        <v>269.9076191184401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="8"/>
+        <v>833333333.33333325</v>
+      </c>
+      <c r="G15" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="9"/>
+        <v>4166666666.666666</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="10"/>
+        <v>132.27513227513225</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="11"/>
+        <v>2594303.3941206196</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4.40211171000555E-4</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="12"/>
+        <v>41.916976349086212</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="13"/>
+        <v>2.2264314596386385</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="14"/>
+        <v>4191.6976349086208</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="15"/>
+        <v>222.64314596386384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="8"/>
+        <v>833333333.33333325</v>
+      </c>
+      <c r="G16" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="9"/>
+        <v>4166666666.666666</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="10"/>
+        <v>132.27513227513225</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="11"/>
+        <v>2594303.3941206196</v>
+      </c>
+      <c r="P16" s="1">
+        <v>6.1050506682658995E-4</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="12"/>
+        <v>61.388854546588767</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="13"/>
+        <v>1.6053920815015794</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="14"/>
+        <v>6138.8854546588764</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="15"/>
+        <v>160.53920815015795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="8"/>
+        <v>833333333.33333325</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="9"/>
+        <v>4166666666.666666</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="10"/>
+        <v>132.27513227513225</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="11"/>
+        <v>2594303.3941206196</v>
+      </c>
+      <c r="P17" s="1">
+        <v>6.9537238688326401E-4</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="12"/>
+        <v>71.456058935729516</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="13"/>
+        <v>1.4094606264032379</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="14"/>
+        <v>7145.6058935729516</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="15"/>
+        <v>140.94606264032379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="8"/>
+        <v>833333333.33333325</v>
+      </c>
+      <c r="G18" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="1">
         <v>5</v>
       </c>
-      <c r="L14">
+      <c r="L18" s="1">
         <v>0.01</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
+      <c r="M18" s="1">
+        <f t="shared" si="9"/>
         <v>4166666666.666666</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
+      <c r="N18" s="1">
+        <f t="shared" si="10"/>
         <v>132.27513227513225</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>2594303.3941206196</v>
-      </c>
-      <c r="P14">
-        <v>3.6312424346033299E-4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="4"/>
-        <v>33.484963579799711</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="5"/>
-        <v>2.6990761912790444</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="6"/>
-        <v>3348.496357979971</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="7"/>
-        <v>269.90761912790441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E15">
-        <v>50000</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>833333333.33333325</v>
-      </c>
-      <c r="G15" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="H15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I15">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.25</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>0.01</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>4166666666.666666</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="2"/>
-        <v>132.27513227513225</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
-        <v>2594303.3941206196</v>
-      </c>
-      <c r="P15">
-        <v>4.40211171000555E-4</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="4"/>
-        <v>41.916976349086212</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="5"/>
-        <v>2.2264314596386385</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
-        <v>4191.6976349086208</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="7"/>
-        <v>222.64314596386384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="E16" s="4">
-        <v>50000</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>833333333.33333325</v>
-      </c>
-      <c r="G16" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I16" s="4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" si="1"/>
-        <v>4166666666.666666</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="2"/>
-        <v>132.27513227513225</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="3"/>
-        <v>2594303.3941206196</v>
-      </c>
-      <c r="P16" s="4">
-        <v>6.9829521919382296E-4</v>
-      </c>
-      <c r="Q16" s="4">
-        <f t="shared" si="4"/>
-        <v>71.806588154709473</v>
-      </c>
-      <c r="R16" s="4">
-        <f t="shared" si="5"/>
-        <v>1.4035610914414089</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="6"/>
-        <v>7180.658815470947</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="7"/>
-        <v>140.3561091441409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>0.75</v>
-      </c>
-      <c r="E17">
-        <v>50000</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>833333333.33333325</v>
-      </c>
-      <c r="G17" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="H17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I17">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>0.01</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>4166666666.666666</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="2"/>
-        <v>132.27513227513225</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>2594303.3941206196</v>
-      </c>
-      <c r="P17">
-        <v>8.7164541420861499E-4</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>93.006907256067123</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="5"/>
-        <v>1.1244251206092253</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="6"/>
-        <v>9300.6907256067116</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="7"/>
-        <v>112.44251206092252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>50000</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>833333333.33333325</v>
-      </c>
-      <c r="G18" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="H18">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I18">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.5</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>0.01</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>4166666666.666666</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="2"/>
-        <v>132.27513227513225</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
+      <c r="O18" s="1">
+        <f t="shared" si="11"/>
         <v>2594303.3941206196</v>
       </c>
       <c r="P18" s="3">
         <v>5.2496646704912504E-4</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="4"/>
+      <c r="Q18" s="1">
+        <f t="shared" si="12"/>
         <v>51.476088100875486</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="5"/>
+      <c r="R18" s="1">
+        <f t="shared" si="13"/>
         <v>1.8669763909097163</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="6"/>
+      <c r="S18" s="1">
+        <f t="shared" si="14"/>
         <v>5147.6088100875486</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="7"/>
+      <c r="T18" s="1">
+        <f t="shared" si="15"/>
         <v>186.69763909097162</v>
       </c>
     </row>
